--- a/www/IndicatorsPerCountry/Georgia_ExchangeRatestoUKPound_TerritorialRef_1991_2012_CCode_268.xlsx
+++ b/www/IndicatorsPerCountry/Georgia_ExchangeRatestoUKPound_TerritorialRef_1991_2012_CCode_268.xlsx
@@ -117,13 +117,13 @@
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
   </si>
 </sst>
 </file>
